--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -113,26 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    吴阵营，首领孙坚（公元155年至191年），字文台，吴郡富春人，东汉末年军阀之一。\n    游戏中，吴阵营在孙坚领导下，占据扬州、徐州大部，以及荆州、豫州部分城池，共13郡74县423万人口兵5万，都城丹阳郡宛陵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    汉阵营，首领汉献帝刘协（公元181年至234年），字伯和，汉灵帝刘宏次子，汉少帝刘辩异母弟，东汉最后一任皇帝。\n    游戏中，汉阵营在刘协领导下，平定黄巾董卓之乱后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    赵阵营，首领赵王袁绍（公元153年至202年），字本初，汝南汝阳人，东汉末年军阀之一。\n    游戏中，赵阵营在袁绍领导下，平定公孙瓒，占据冀州、幽州大部，以及并州、青州部分城池，共19郡81县423万人口5万兵，都城渤海郡南皮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    魏阵营，首领魏王曹操（公元155年至220年），字孟德，小字阿瞒，沛国谯县人，东汉末年军阀之一。\n    游戏中，魏阵营在曹操领导下，占据兖州、豫州、青州大部，以及冀州、徐州部分城池，共15郡66县427万人口兵5万，都城山阳郡昌邑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    蜀阵营，首领刘备（公元161年至223年），字玄德，涿郡涿县人，东汉末年军阀之一。\n    游戏中，蜀阵营在刘备领导下占据益州、交州大部，以及荆州部分城池，共18郡90县421万人口兵5万，都城巴陵郡江州。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +170,26 @@
   </si>
   <si>
     <t>campId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献帝刘协，字伯和，汉灵帝刘宏次子。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵王袁绍，字本初，汝南汝阳人。游戏中，赵阵营在平定公孙瓒之后，占据冀州、幽州大部，以及并州、青州部分城池，共19郡81县423万人口5万兵，都城渤海郡南皮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏王曹操，字孟德，小字阿瞒，沛国谯县人。游戏中，魏阵营平定黄巾和陶谦之后，占据兖州、豫州、青州大部，以及冀州、徐州部分城池，共15郡66县427万人口兵5万，都城山阳郡昌邑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴王孙坚，字文台，吴郡富春人。游戏中，吴阵营在平定刘繇和黄祖之后，占据扬州、徐州大部，以及荆州、豫州部分城池，共13郡74县423万人口兵5万，都城丹阳郡宛陵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中王刘备，字玄德，涿郡涿县人。游戏中，蜀阵营在平定韩玄和刘璋之后，占据益州、交州大部，以及荆州部分城池，共18郡90县421万人口兵5万，都城巴陵郡江州。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,7 +555,7 @@
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1"/>
     <col min="9" max="9" width="33.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="102.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="104.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -619,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -651,10 +651,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -683,10 +683,10 @@
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -715,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -773,10 +773,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -808,39 +808,39 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -848,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉献帝刘协，字伯和，汉灵帝刘宏次子。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵王袁绍，字本初，汝南汝阳人。游戏中，赵阵营在平定公孙瓒之后，占据冀州、幽州大部，以及并州、青州部分城池，共19郡81县423万人口5万兵，都城渤海郡南皮。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>汉中王刘备，字玄德，涿郡涿县人。游戏中，蜀阵营在平定韩玄和刘璋之后，占据益州、交州大部，以及荆州部分城池，共18郡90县421万人口兵5万，都城巴陵郡江州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝刘宏，生于冀州河间国，于建宁元年正月即位。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -189,7 +189,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝刘宏，生于冀州河间国，于建宁元年正月即位。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
+    <t>汉灵帝刘宏，于建宁元年正月即位。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -77,18 +77,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001;1002;1003;1004;1005;1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2001;2002;2003;2004;2005;2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魏阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,18 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3001;3002;3003;3004;3005;3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001;4002;4003;4004;4005;4006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001;5002;5003;5004;5005;5006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +166,26 @@
   </si>
   <si>
     <t>汉中王刘备，字玄德，涿郡涿县人。游戏中，蜀阵营在平定韩玄和刘璋之后，占据益州、交州大部，以及荆州部分城池，共18郡90县421万人口兵5万，都城巴陵郡江州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004;1005;1006;1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004;2005;2006;2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001;3002;3003;3004;3005;3006;3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001;4002;4003;4004;4005;4006;4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001;5002;5003;5004;5005;5006;5007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,7 +554,7 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="33.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="104.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,7 +616,7 @@
         <v>1000</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>43</v>
@@ -627,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2001</v>
@@ -648,10 +648,10 @@
         <v>1000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>3001</v>
@@ -680,10 +680,10 @@
         <v>1000</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>4001</v>
@@ -712,10 +712,10 @@
         <v>1000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>5001</v>
@@ -744,10 +744,10 @@
         <v>1000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -773,10 +773,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -808,39 +808,39 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -848,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>captain</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始财力（单位锭，1锭=1000贯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始粮草（单位石，1石=1000斤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>food</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +182,26 @@
   </si>
   <si>
     <t>汉灵帝刘宏，于建宁元年正月即位。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始财力（单位锭，1锭=100贯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始粮草（单位石，1石=100斤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始药材（单位副，1副=100份）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,12 +565,12 @@
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="38.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="104.375" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="38.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="104.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,13 +596,16 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -607,22 +622,25 @@
         <v>422</v>
       </c>
       <c r="F2" s="1">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -639,22 +657,25 @@
         <v>423</v>
       </c>
       <c r="F3" s="1">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -671,22 +692,25 @@
         <v>427</v>
       </c>
       <c r="F4" s="1">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -703,22 +727,25 @@
         <v>423</v>
       </c>
       <c r="F5" s="1">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -735,19 +762,22 @@
         <v>421</v>
       </c>
       <c r="F6" s="1">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>5000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -759,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -773,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -824,31 +854,39 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,47 +161,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2001;2002;2003;2004;2005;2006;2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001;4002;4003;4004;4005;4006;4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001;5002;5003;5004;5005;5006;5007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始财力（单位锭，1锭=100贯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始粮草（单位石，1石=100斤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始药材（单位副，1副=100份）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001;3002;3003;3004;3005;3006;3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉少帝刘辩，东汉第十三位皇帝。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1001;1002;1003;1004;1005;1006;1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004;2005;2006;2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001;3002;3003;3004;3005;3006;3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001;4002;4003;4004;4005;4006;4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001;5002;5003;5004;5005;5006;5007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝刘宏，于建宁元年正月即位。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始财力（单位锭，1锭=100贯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始粮草（单位石，1石=100斤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始药材（单位副，1副=100份）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +557,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -634,10 +634,10 @@
         <v>5000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -669,7 +669,7 @@
         <v>5000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>32</v>
@@ -704,7 +704,7 @@
         <v>5000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>33</v>
@@ -739,7 +739,7 @@
         <v>5000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>34</v>
@@ -774,7 +774,7 @@
         <v>5000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>35</v>
@@ -854,7 +854,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -862,15 +862,15 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>captain</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,139 +37,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首领ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都城池ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始百姓人口（单位万）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始兵力（人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始财力（单位锭，1锭=1000贯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始粮草（单位石，1石=1000斤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始将领ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004;1005;1006;1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004;2005;2006;2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001;3002;3003;3004;3005;3006;3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001;4002;4003;4004;4005;4006;4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001;5002;5003;5004;5005;5006;5007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>capital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>population</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀阵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵营ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵营名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首领ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首都城池ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始百姓人口（单位万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始兵力（人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始将领ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵营描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵王袁绍，字本初，汝南汝阳人。游戏中，赵阵营在平定公孙瓒之后，占据冀州、幽州大部，以及并州、青州部分城池，共19郡81县423万人口5万兵，都城渤海郡南皮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏王曹操，字孟德，小字阿瞒，沛国谯县人。游戏中，魏阵营平定黄巾和陶谦之后，占据兖州、豫州、青州大部，以及冀州、徐州部分城池，共15郡66县427万人口兵5万，都城山阳郡昌邑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴王孙坚，字文台，吴郡富春人。游戏中，吴阵营在平定刘繇和黄祖之后，占据扬州、徐州大部，以及荆州、豫州部分城池，共13郡74县423万人口兵5万，都城丹阳郡宛陵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉中王刘备，字玄德，涿郡涿县人。游戏中，蜀阵营在平定韩玄和刘璋之后，占据益州、交州大部，以及荆州部分城池，共18郡90县421万人口兵5万，都城巴陵郡江州。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004;2005;2006;2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001;4002;4003;4004;4005;4006;4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001;5002;5003;5004;5005;5006;5007</t>
+    <t>刘协（181年－234年4月，史寿命53岁），游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，而没有经历迎接汉帝、官渡之战、赤壁之战等战役。刘汉都城长安，占据21郡城85县，人口约183万户，可征兵约18.3万人。占据司隶州、凉州全部，另包括汉中郡、上庸郡、襄阳郡、南阳郡、颍川郡，其中有雒阳、长安、宛城、阳翟四座大都市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍（？年－202年），游戏中为了增加可玩性，设定198年后，袁绍继续平定幽州、并州等地，而没有和曹操爆发官渡之战。袁赵都城信都，占据26郡城95县，人口约175万户，可征兵约17.5万人。袁赵占据冀州、幽州、并州全部，另包括平原郡，其中有邺城、信都、蓟城、晋阳四座大都市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操（155年－220年3月，史寿命65岁），游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，而没有经历迎接汉帝、官渡之战、赤壁之战等战役。曹魏都城昌邑，占据19郡城79县，人口约193万户，可征兵约19.3万人。曹魏占据兖州全部、青州（缺平原郡），徐州（缺下邳国和广陵郡），另包括沛国、梁国、陈国、鲁国，其中有临菑、濮阳、昌邑、郯城四座大都市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚（155年－191年，史寿命36岁），游戏中为了增加可玩性，设定191年孙坚没有战死而是重伤，修养恢复后，采用其长子孙策建议，东渡长江作战，开拓势力。孙吴都城建邺，占据14郡城69县，人口约180万户，可征兵约18.0万人。孙吴占据扬州全部，豫州（仅谯郡、汝南郡），另包括江夏郡、下邳国、广陵郡，其中有建邺、寿春、南昌、吴县四座大都市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备（161年－223年6月，史寿命62岁），游戏中为了增加可玩性，设定198年刘备曹操击败吕布后，被曹操举荐为左将军，驻守南郡，后平定荆南四郡、入主益州和交州。蜀汉都城江州，占据20郡城83县，人口约181万户，可征兵约18.1万人。蜀汉占据交州全部，益州（缺汉中郡和上庸郡），荆州（缺南阳郡、襄阳郡、江夏郡），其中有成都、江州、汉寿、江陵四座大都市。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,27 +201,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始财力（单位锭，1锭=100贯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始粮草（单位石，1石=100斤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始药材（单位副，1副=100份）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3001;3002;3003;3004;3005;3006;3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉少帝刘辩，东汉第十三位皇帝。游戏中，汉阵营在平定黄巾和董卓之后，占据司隶州、凉州大部，以及并州、豫州、兖州、荆州部分城池，共18郡90县422万人口5万兵，都城河南尹雒阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002;1003;1004;1005;1006;1007</t>
+    <t>src_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物初始城池ID字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,13 +253,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,230 +568,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="38.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="104.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="38.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="104.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>405</v>
+      </c>
+      <c r="E2" s="4">
+        <v>318</v>
+      </c>
+      <c r="F2" s="4">
+        <v>183</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1">
-        <v>422</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C3" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>212</v>
+      </c>
+      <c r="E3" s="4">
+        <v>208</v>
+      </c>
+      <c r="F3" s="4">
+        <v>175</v>
+      </c>
+      <c r="G3" s="4">
         <v>1000</v>
       </c>
-      <c r="G2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>907</v>
-      </c>
-      <c r="E3" s="1">
-        <v>423</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C4" s="4">
+        <v>3001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>315</v>
+      </c>
+      <c r="E4" s="4">
+        <v>326</v>
+      </c>
+      <c r="F4" s="4">
+        <v>193</v>
+      </c>
+      <c r="G4" s="4">
         <v>1000</v>
       </c>
-      <c r="G3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>802</v>
+      </c>
+      <c r="E5" s="4">
+        <v>803</v>
+      </c>
+      <c r="F5" s="4">
+        <v>180</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1205</v>
-      </c>
-      <c r="E4" s="1">
-        <v>427</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>602</v>
+      </c>
+      <c r="E6" s="4">
+        <v>206</v>
+      </c>
+      <c r="F6" s="4">
+        <v>181</v>
+      </c>
+      <c r="G6" s="4">
         <v>1000</v>
       </c>
-      <c r="G4" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>202</v>
-      </c>
-      <c r="E5" s="1">
-        <v>423</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>302</v>
-      </c>
-      <c r="E6" s="1">
-        <v>421</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -789,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B22" activeCellId="2" sqref="B24 B22 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,18 +835,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -822,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -830,63 +862,71 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -173,26 +173,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘协（181年－234年4月，史寿命53岁），游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，而没有经历迎接汉帝、官渡之战、赤壁之战等战役。刘汉都城长安，占据21郡城85县，人口约183万户，可征兵约18.3万人。占据司隶州、凉州全部，另包括汉中郡、上庸郡、襄阳郡、南阳郡、颍川郡，其中有雒阳、长安、宛城、阳翟四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>袁绍（？年－202年），游戏中为了增加可玩性，设定198年后，袁绍继续平定幽州、并州等地，而没有和曹操爆发官渡之战。袁赵都城信都，占据26郡城95县，人口约175万户，可征兵约17.5万人。袁赵占据冀州、幽州、并州全部，另包括平原郡，其中有邺城、信都、蓟城、晋阳四座大都市。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曹操（155年－220年3月，史寿命65岁），游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，而没有经历迎接汉帝、官渡之战、赤壁之战等战役。曹魏都城昌邑，占据19郡城79县，人口约193万户，可征兵约19.3万人。曹魏占据兖州全部、青州（缺平原郡），徐州（缺下邳国和广陵郡），另包括沛国、梁国、陈国、鲁国，其中有临菑、濮阳、昌邑、郯城四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙坚（155年－191年，史寿命36岁），游戏中为了增加可玩性，设定191年孙坚没有战死而是重伤，修养恢复后，采用其长子孙策建议，东渡长江作战，开拓势力。孙吴都城建邺，占据14郡城69县，人口约180万户，可征兵约18.0万人。孙吴占据扬州全部，豫州（仅谯郡、汝南郡），另包括江夏郡、下邳国、广陵郡，其中有建邺、寿春、南昌、吴县四座大都市。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘备（161年－223年6月，史寿命62岁），游戏中为了增加可玩性，设定198年刘备曹操击败吕布后，被曹操举荐为左将军，驻守南郡，后平定荆南四郡、入主益州和交州。蜀汉都城江州，占据20郡城83县，人口约181万户，可征兵约18.1万人。蜀汉占据交州全部，益州（缺汉中郡和上庸郡），荆州（缺南阳郡、襄阳郡、江夏郡），其中有成都、江州、汉寿、江陵四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>人物初始城池ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘亭（158年—201年），虚拟人物，冀州河间国人，汉灵帝刘宏之弟，早年被贬庶人，黄巾之乱后，被征召启用，后辅佐汉献帝刘协稳固西北，受封秦王。刘汉都城长安，占据21郡城85县，人口约183万户，可征兵约18.3万人。占据司隶州、凉州全部，另包括汉中郡、上庸郡、襄阳郡、南阳郡、颍川郡，其中有雒阳、长安、宛城、阳翟四座大都市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操（155年－220年3月，史寿命65岁），游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，。曹魏都城昌邑，占据19郡城79县，人口约193万户，可征兵约19.3万人。曹魏占据兖州全部、青州（缺平原郡），徐州（缺下邳国和广陵郡），另包括沛国、梁国、陈国、鲁国，其中有临菑、濮阳、昌邑、郯城四座大都市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备（161年－223年6月，史寿命62岁），游戏中为了增加可玩性，设定198年刘备曹操击败吕布后，驻守南郡，后平定荆南四郡、入主益州和交州。蜀汉都城江州，占据20郡城83县，人口约181万户，可征兵约18.1万人。蜀汉占据交州全部，益州（缺汉中郡和上庸郡），荆州（缺南阳郡、襄阳郡、江夏郡），其中有成都、江州、汉寿、江陵四座大都市。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" activeCellId="11" sqref="L8 L8 L8 L8 L8 L8 L8 L8 L8 L8 L8 L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +598,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -636,7 +636,7 @@
         <v>405</v>
       </c>
       <c r="E2" s="4">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c r="F2" s="4">
         <v>183</v>
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,7 +695,7 @@
         <v>34</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -771,7 +771,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -809,7 +809,7 @@
         <v>37</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -867,10 +867,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -907,10 +907,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/campConfig.xlsx
+++ b/tbl打包工具/excel/campConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袁绍（？年－202年），游戏中为了增加可玩性，设定198年后，袁绍继续平定幽州、并州等地，而没有和曹操爆发官渡之战。袁赵都城信都，占据26郡城95县，人口约175万户，可征兵约17.5万人。袁赵占据冀州、幽州、并州全部，另包括平原郡，其中有邺城、信都、蓟城、晋阳四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚（155年－191年，史寿命36岁），游戏中为了增加可玩性，设定191年孙坚没有战死而是重伤，修养恢复后，采用其长子孙策建议，东渡长江作战，开拓势力。孙吴都城建邺，占据14郡城69县，人口约180万户，可征兵约18.0万人。孙吴占据扬州全部，豫州（仅谯郡、汝南郡），另包括江夏郡、下邳国、广陵郡，其中有建邺、寿春、南昌、吴县四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,15 +193,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘亭（158年—201年），虚拟人物，冀州河间国人，汉灵帝刘宏之弟，早年被贬庶人，黄巾之乱后，被征召启用，后辅佐汉献帝刘协稳固西北，受封秦王。刘汉都城长安，占据21郡城85县，人口约183万户，可征兵约18.3万人。占据司隶州、凉州全部，另包括汉中郡、上庸郡、襄阳郡、南阳郡、颍川郡，其中有雒阳、长安、宛城、阳翟四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操（155年－220年3月，史寿命65岁），游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，。曹魏都城昌邑，占据19郡城79县，人口约193万户，可征兵约19.3万人。曹魏占据兖州全部、青州（缺平原郡），徐州（缺下邳国和广陵郡），另包括沛国、梁国、陈国、鲁国，其中有临菑、濮阳、昌邑、郯城四座大都市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备（161年－223年6月，史寿命62岁），游戏中为了增加可玩性，设定198年刘备曹操击败吕布后，驻守南郡，后平定荆南四郡、入主益州和交州。蜀汉都城江州，占据20郡城83县，人口约181万户，可征兵约18.1万人。蜀汉占据交州全部，益州（缺汉中郡和上庸郡），荆州（缺南阳郡、襄阳郡、江夏郡），其中有成都、江州、汉寿、江陵四座大都市。</t>
+    <t>刘亭（158年—201年），虚拟人物，冀州河间国人，汉灵帝刘宏之弟，早年被贬庶人，黄巾之乱后，被征召启用，后辅佐汉献帝刘协稳固西北，受封秦王。刘汉占据司隶州、凉州全部，另包括汉中郡、上庸郡、襄阳郡、南阳郡、颍川郡，其中有雒阳、长安、宛城、阳翟四座大都市。都城长安，共21郡城85县，人口约183万户，可征兵约18.3万人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍（？年－202年）字本初，汝南汝阳（今河南周口袁老乡）人。游戏中袁绍在讨董之后崛起，诈取冀州牧、后继续平定并州、幽州等地，受封赵王。袁赵占据冀州、幽州、并州全部，另包括平原郡，其中有邺城、信都、蓟城、晋阳四座大都市。都城信都，占据26郡城95县，人口约175万户，可征兵约17.5万人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操（155年－220年）字孟德，沛国谯县（今安徽亳州）人。游戏中曹操黄巾之乱后继续平定兖州、徐州、豫州、青州等地，受封魏王。曹魏占据兖州全部、青州（缺平原郡），徐州（缺下邳国和广陵郡），另包括沛国、梁国、陈国、鲁国，其中有临菑、濮阳、昌邑、郯城四座大都市。都城昌邑，占据19郡城79县，人口约193万户，可征兵约19.3万人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚（155年－191年）字文台，吴郡富春（今浙江杭州富阳）人。游戏中孙坚襄阳之战后重伤，修养恢复后采用其长子孙策建议，开拓江东基业，受封吴王。孙吴占据扬州全部，豫州（仅谯郡、汝南郡），另包括江夏郡、下邳国、广陵郡，其中有建邺、寿春、南昌、吴县四座大都市。都城建邺，占据14郡城69县，人口约180万户，可征兵约18.0万人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备（161年－223年）字玄德，涿郡涿县（今河北涿州市）人。游戏中刘备被曹操举荐为左将军，驻守南郡，后平定荆南、益州和交州，受封汉中王。蜀汉占据交州全部，益州（缺汉中郡和上庸郡），荆州（缺南阳郡、襄阳郡、江夏郡），其中有成都、江州、汉寿、江陵四座大都市。都城江州，占据20郡城83县，人口约181万户，可征兵约18.1万人。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" activeCellId="11" sqref="L8 L8 L8 L8 L8 L8 L8 L8 L8 L8 L8 L8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L12" activeCellId="2" sqref="L12 L12 L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +598,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,7 +695,7 @@
         <v>34</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -771,7 +771,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,10 +867,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -907,10 +907,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
